--- a/Excels/TLs_201811.xlsx
+++ b/Excels/TLs_201811.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jherrepe\Desktop\Pythonsnew\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmartino\Desktop\BlackMargin\MarginBlack\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="12" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -794,9 +794,6 @@
     <t>Santiago Aguerri Aguado</t>
   </si>
   <si>
-    <t xml:space="preserve">EXT-000193-00907 </t>
-  </si>
-  <si>
     <t>Pool Visualización</t>
   </si>
   <si>
@@ -849,6 +846,9 @@
   </si>
   <si>
     <t>RORC</t>
+  </si>
+  <si>
+    <t>EXT-000193-00907</t>
   </si>
 </sst>
 </file>
@@ -4010,7 +4010,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B79" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -4659,7 +4659,7 @@
   <dimension ref="A1:F227"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScale="74" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
@@ -5211,10 +5211,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="B28" s="32" t="s">
         <v>229</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>230</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>34</v>
@@ -5229,10 +5229,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="B29" s="32" t="s">
         <v>229</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>230</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>11</v>
@@ -5333,7 +5333,7 @@
         <v>43</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D34" s="29">
         <v>144</v>
@@ -5350,7 +5350,7 @@
         <v>51</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>76</v>
@@ -5370,7 +5370,7 @@
         <v>51</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>53</v>
@@ -5390,7 +5390,7 @@
         <v>51</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>54</v>
@@ -5410,7 +5410,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C38" s="28" t="s">
         <v>55</v>
@@ -5430,7 +5430,7 @@
         <v>51</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C39" s="28" t="s">
         <v>56</v>
@@ -5450,10 +5450,10 @@
         <v>51</v>
       </c>
       <c r="B40" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="C40" s="20" t="s">
         <v>232</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>233</v>
       </c>
       <c r="D40" s="29">
         <v>160</v>
@@ -5570,7 +5570,7 @@
         <v>70</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>26</v>
@@ -5590,7 +5590,7 @@
         <v>70</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>10</v>
@@ -5610,7 +5610,7 @@
         <v>70</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>27</v>
@@ -5630,7 +5630,7 @@
         <v>70</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C49" s="20" t="s">
         <v>71</v>
@@ -5650,7 +5650,7 @@
         <v>70</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C50" s="20" t="s">
         <v>72</v>
@@ -5670,7 +5670,7 @@
         <v>70</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C51" s="20" t="s">
         <v>73</v>
@@ -5690,7 +5690,7 @@
         <v>70</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C52" s="20" t="s">
         <v>75</v>
@@ -5710,7 +5710,7 @@
         <v>70</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C53" s="20" t="s">
         <v>76</v>
@@ -5730,7 +5730,7 @@
         <v>70</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C54" s="20" t="s">
         <v>77</v>
@@ -5750,7 +5750,7 @@
         <v>70</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>78</v>
@@ -5770,7 +5770,7 @@
         <v>70</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C56" s="20" t="s">
         <v>49</v>
@@ -5790,10 +5790,10 @@
         <v>70</v>
       </c>
       <c r="B57" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="C57" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>235</v>
       </c>
       <c r="D57" s="29">
         <v>152</v>
@@ -5810,10 +5810,10 @@
         <v>70</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D58" s="29">
         <v>152</v>
@@ -5953,7 +5953,7 @@
         <v>5</v>
       </c>
       <c r="C65" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D65" s="29">
         <v>152</v>
@@ -5973,7 +5973,7 @@
         <v>5</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D66" s="29">
         <v>160</v>
@@ -5993,7 +5993,7 @@
         <v>5</v>
       </c>
       <c r="C67" s="36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D67" s="29">
         <v>160</v>
@@ -6013,7 +6013,7 @@
         <v>5</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D68" s="29">
         <v>152</v>
@@ -6033,7 +6033,7 @@
         <v>5</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D69" s="29">
         <v>152</v>
@@ -6153,7 +6153,7 @@
         <v>37</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D75" s="29">
         <v>152</v>
@@ -6193,7 +6193,7 @@
         <v>37</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D77" s="29">
         <v>152</v>
@@ -6233,7 +6233,7 @@
         <v>37</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D79" s="29">
         <v>112</v>
@@ -6433,7 +6433,7 @@
         <v>80</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D89" s="29">
         <v>164</v>
@@ -6533,7 +6533,7 @@
         <v>47</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D94" s="29">
         <v>160</v>
@@ -6570,7 +6570,7 @@
         <v>84</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C96" s="28" t="s">
         <v>85</v>
@@ -9517,6 +9517,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100AC7593AF650CCD4DA29693C434D9B93D" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="87b01934b614e4f37b4d036e08def249">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c5c0a092-86e7-4d19-9228-f591611b7342" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c60d6c4eb9101f020e3664cd21a59f74" ns2:_="">
     <xsd:import namespace="c5c0a092-86e7-4d19-9228-f591611b7342"/>
@@ -9648,35 +9663,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D472483-7683-49CD-97A9-4D412ED1B02B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F6CEEDA-A7C8-4CA1-B28B-79033BB1D391}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c5c0a092-86e7-4d19-9228-f591611b7342"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9698,9 +9688,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F6CEEDA-A7C8-4CA1-B28B-79033BB1D391}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D472483-7683-49CD-97A9-4D412ED1B02B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c5c0a092-86e7-4d19-9228-f591611b7342"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>